--- a/Báo giá.xlsx
+++ b/Báo giá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MobiShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DECF2A-6EF9-4007-8F9D-D90247E0425C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309820AC-F6F4-4DF2-9FF8-0FEC06CD1397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC668FD4-9644-438A-A34F-DEF3F354D4C9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>THỜI GIAN (GIỜ)</t>
+  </si>
+  <si>
+    <t>Thêm phần tin cùng chuyên mục</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hình sim tại trang chi tiết sim</t>
+  </si>
+  <si>
+    <t>Thêm khung tìm sim tại navbar</t>
   </si>
 </sst>
 </file>
@@ -171,7 +183,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +262,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711091FE-9A90-4EEE-92F3-6773C4B10DA3}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,32 +895,74 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
-        <f>SUM(C2:C21)</f>
-        <v>29.4</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12">
+        <f>SUM(C2:C24)</f>
+        <v>32.9</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
-        <f>C22*(4*23000)</f>
-        <v>2704800</v>
+      <c r="D28" s="10">
+        <f>C25*(4*23000)</f>
+        <v>3026800</v>
       </c>
     </row>
   </sheetData>
